--- a/xlsx/西部非洲_intext.xlsx
+++ b/xlsx/西部非洲_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="416">
   <si>
     <t>西部非洲</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%A5%BF%E9%9D%9E</t>
   </si>
   <si>
-    <t>法屬西非</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_西部非洲</t>
+    <t>法属西非</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_西部非洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%9C%B0%E7%90%86%E6%96%B9%E6%A1%88</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>非洲大陸</t>
+    <t>非洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>奴隸貿易</t>
+    <t>奴隶贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非洲裔美國人</t>
+    <t>非洲裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B5%AB%E5%8B%92%E6%8B%BF</t>
   </si>
   <si>
-    <t>聖赫勒拿</t>
+    <t>圣赫勒拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E%E5%9C%8B%E5%AE%B6%E7%B6%93%E6%BF%9F%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>西非國家經濟共同體</t>
+    <t>西非国家经济共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E%E5%9C%8B%E5%AE%B6%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>西非國家中央銀行</t>
+    <t>西非国家中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E%E6%B3%95%E9%83%8E</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -605,9 +605,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B5%AB%E5%8B%92%E6%8B%BF</t>
   </si>
   <si>
-    <t>圣赫勒拿</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C%E5%85%B0</t>
   </si>
   <si>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
+    <t>世界政区索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -827,19 +824,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E4%B8%9C%E5%9C%B0%E5%8C%BA</t>
@@ -887,13 +884,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -1079,25 +1076,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>赤道多雨氣候</t>
+    <t>赤道多雨气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
+    <t>热带干湿季气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -1115,13 +1109,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
+    <t>热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
@@ -1133,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
+    <t>副热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
@@ -1151,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%BC%8F%E6%B0%94%E5%80%99</t>
@@ -1187,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
+    <t>极地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -1205,19 +1199,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
+    <t>极地冰原气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -1241,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -4539,7 +4533,7 @@
         <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4565,10 +4559,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4594,10 +4588,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4623,10 +4617,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4652,10 +4646,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4681,10 +4675,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4710,10 +4704,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4739,10 +4733,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4768,10 +4762,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>12</v>
@@ -4797,10 +4791,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4826,10 +4820,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4855,10 +4849,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4884,10 +4878,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4913,10 +4907,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4942,10 +4936,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4971,10 +4965,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5058,10 +5052,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5087,10 +5081,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5116,10 +5110,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5145,10 +5139,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5174,10 +5168,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5232,10 +5226,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5261,10 +5255,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
         <v>239</v>
-      </c>
-      <c r="F126" t="s">
-        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5290,10 +5284,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5319,10 +5313,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5348,10 +5342,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5377,10 +5371,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>8</v>
@@ -5406,10 +5400,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5435,10 +5429,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>212</v>
+      </c>
+      <c r="F132" t="s">
         <v>213</v>
-      </c>
-      <c r="F132" t="s">
-        <v>214</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5464,10 +5458,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>250</v>
+      </c>
+      <c r="F133" t="s">
         <v>251</v>
-      </c>
-      <c r="F133" t="s">
-        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5493,10 +5487,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>252</v>
+      </c>
+      <c r="F134" t="s">
         <v>253</v>
-      </c>
-      <c r="F134" t="s">
-        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5522,10 +5516,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>254</v>
+      </c>
+      <c r="F135" t="s">
         <v>255</v>
-      </c>
-      <c r="F135" t="s">
-        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5551,10 +5545,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>256</v>
+      </c>
+      <c r="F136" t="s">
         <v>257</v>
-      </c>
-      <c r="F136" t="s">
-        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5580,10 +5574,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>258</v>
+      </c>
+      <c r="F137" t="s">
         <v>259</v>
-      </c>
-      <c r="F137" t="s">
-        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5609,10 +5603,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F138" t="s">
         <v>261</v>
-      </c>
-      <c r="F138" t="s">
-        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5638,10 +5632,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>262</v>
+      </c>
+      <c r="F139" t="s">
         <v>263</v>
-      </c>
-      <c r="F139" t="s">
-        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5667,10 +5661,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>236</v>
+      </c>
+      <c r="F140" t="s">
         <v>237</v>
-      </c>
-      <c r="F140" t="s">
-        <v>238</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5696,10 +5690,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>264</v>
+      </c>
+      <c r="F141" t="s">
         <v>265</v>
-      </c>
-      <c r="F141" t="s">
-        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5725,10 +5719,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>266</v>
+      </c>
+      <c r="F142" t="s">
         <v>267</v>
-      </c>
-      <c r="F142" t="s">
-        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5754,10 +5748,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>268</v>
+      </c>
+      <c r="F143" t="s">
         <v>269</v>
-      </c>
-      <c r="F143" t="s">
-        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5783,10 +5777,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>270</v>
+      </c>
+      <c r="F144" t="s">
         <v>271</v>
-      </c>
-      <c r="F144" t="s">
-        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5812,10 +5806,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>272</v>
+      </c>
+      <c r="F145" t="s">
         <v>273</v>
-      </c>
-      <c r="F145" t="s">
-        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5870,10 +5864,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>226</v>
+      </c>
+      <c r="F147" t="s">
         <v>227</v>
-      </c>
-      <c r="F147" t="s">
-        <v>228</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5928,10 +5922,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>226</v>
+      </c>
+      <c r="F149" t="s">
         <v>227</v>
-      </c>
-      <c r="F149" t="s">
-        <v>228</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5957,10 +5951,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>232</v>
+      </c>
+      <c r="F150" t="s">
         <v>233</v>
-      </c>
-      <c r="F150" t="s">
-        <v>234</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5986,10 +5980,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>274</v>
+      </c>
+      <c r="F151" t="s">
         <v>275</v>
-      </c>
-      <c r="F151" t="s">
-        <v>276</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6015,10 +6009,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>216</v>
+      </c>
+      <c r="F152" t="s">
         <v>217</v>
-      </c>
-      <c r="F152" t="s">
-        <v>218</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6044,10 +6038,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>276</v>
+      </c>
+      <c r="F153" t="s">
         <v>277</v>
-      </c>
-      <c r="F153" t="s">
-        <v>278</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6073,10 +6067,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>278</v>
+      </c>
+      <c r="F154" t="s">
         <v>279</v>
-      </c>
-      <c r="F154" t="s">
-        <v>280</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6102,10 +6096,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>280</v>
+      </c>
+      <c r="F155" t="s">
         <v>281</v>
-      </c>
-      <c r="F155" t="s">
-        <v>282</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6131,10 +6125,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>282</v>
+      </c>
+      <c r="F156" t="s">
         <v>283</v>
-      </c>
-      <c r="F156" t="s">
-        <v>284</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6160,10 +6154,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>284</v>
+      </c>
+      <c r="F157" t="s">
         <v>285</v>
-      </c>
-      <c r="F157" t="s">
-        <v>286</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6189,10 +6183,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>286</v>
+      </c>
+      <c r="F158" t="s">
         <v>287</v>
-      </c>
-      <c r="F158" t="s">
-        <v>288</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6218,10 +6212,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>288</v>
+      </c>
+      <c r="F159" t="s">
         <v>289</v>
-      </c>
-      <c r="F159" t="s">
-        <v>290</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6247,10 +6241,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>290</v>
+      </c>
+      <c r="F160" t="s">
         <v>291</v>
-      </c>
-      <c r="F160" t="s">
-        <v>292</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6276,10 +6270,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>292</v>
+      </c>
+      <c r="F161" t="s">
         <v>293</v>
-      </c>
-      <c r="F161" t="s">
-        <v>294</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6305,10 +6299,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>294</v>
+      </c>
+      <c r="F162" t="s">
         <v>295</v>
-      </c>
-      <c r="F162" t="s">
-        <v>296</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6334,10 +6328,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>296</v>
+      </c>
+      <c r="F163" t="s">
         <v>297</v>
-      </c>
-      <c r="F163" t="s">
-        <v>298</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6363,10 +6357,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>298</v>
+      </c>
+      <c r="F164" t="s">
         <v>299</v>
-      </c>
-      <c r="F164" t="s">
-        <v>300</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6392,10 +6386,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>300</v>
+      </c>
+      <c r="F165" t="s">
         <v>301</v>
-      </c>
-      <c r="F165" t="s">
-        <v>302</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6421,10 +6415,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>302</v>
+      </c>
+      <c r="F166" t="s">
         <v>303</v>
-      </c>
-      <c r="F166" t="s">
-        <v>304</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6450,10 +6444,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>304</v>
+      </c>
+      <c r="F167" t="s">
         <v>305</v>
-      </c>
-      <c r="F167" t="s">
-        <v>306</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6479,10 +6473,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>294</v>
+      </c>
+      <c r="F168" t="s">
         <v>295</v>
-      </c>
-      <c r="F168" t="s">
-        <v>296</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6508,10 +6502,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>306</v>
+      </c>
+      <c r="F169" t="s">
         <v>307</v>
-      </c>
-      <c r="F169" t="s">
-        <v>308</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6537,10 +6531,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>308</v>
+      </c>
+      <c r="F170" t="s">
         <v>309</v>
-      </c>
-      <c r="F170" t="s">
-        <v>310</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6566,10 +6560,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>310</v>
+      </c>
+      <c r="F171" t="s">
         <v>311</v>
-      </c>
-      <c r="F171" t="s">
-        <v>312</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6595,10 +6589,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>312</v>
+      </c>
+      <c r="F172" t="s">
         <v>313</v>
-      </c>
-      <c r="F172" t="s">
-        <v>314</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6624,10 +6618,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>314</v>
+      </c>
+      <c r="F173" t="s">
         <v>315</v>
-      </c>
-      <c r="F173" t="s">
-        <v>316</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6653,10 +6647,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>316</v>
+      </c>
+      <c r="F174" t="s">
         <v>317</v>
-      </c>
-      <c r="F174" t="s">
-        <v>318</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6682,10 +6676,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>318</v>
+      </c>
+      <c r="F175" t="s">
         <v>319</v>
-      </c>
-      <c r="F175" t="s">
-        <v>320</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6711,10 +6705,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>320</v>
+      </c>
+      <c r="F176" t="s">
         <v>321</v>
-      </c>
-      <c r="F176" t="s">
-        <v>322</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6740,10 +6734,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>322</v>
+      </c>
+      <c r="F177" t="s">
         <v>323</v>
-      </c>
-      <c r="F177" t="s">
-        <v>324</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6769,10 +6763,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>324</v>
+      </c>
+      <c r="F178" t="s">
         <v>325</v>
-      </c>
-      <c r="F178" t="s">
-        <v>326</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6798,10 +6792,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>326</v>
+      </c>
+      <c r="F179" t="s">
         <v>327</v>
-      </c>
-      <c r="F179" t="s">
-        <v>328</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -6827,10 +6821,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>328</v>
+      </c>
+      <c r="F180" t="s">
         <v>329</v>
-      </c>
-      <c r="F180" t="s">
-        <v>330</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6856,10 +6850,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>214</v>
+      </c>
+      <c r="F181" t="s">
         <v>215</v>
-      </c>
-      <c r="F181" t="s">
-        <v>216</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6885,10 +6879,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>330</v>
+      </c>
+      <c r="F182" t="s">
         <v>331</v>
-      </c>
-      <c r="F182" t="s">
-        <v>332</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6914,10 +6908,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>332</v>
+      </c>
+      <c r="F183" t="s">
         <v>333</v>
-      </c>
-      <c r="F183" t="s">
-        <v>334</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6943,10 +6937,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>334</v>
+      </c>
+      <c r="F184" t="s">
         <v>335</v>
-      </c>
-      <c r="F184" t="s">
-        <v>336</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6972,10 +6966,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>336</v>
+      </c>
+      <c r="F185" t="s">
         <v>337</v>
-      </c>
-      <c r="F185" t="s">
-        <v>338</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7001,10 +6995,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>338</v>
+      </c>
+      <c r="F186" t="s">
         <v>339</v>
-      </c>
-      <c r="F186" t="s">
-        <v>340</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7030,10 +7024,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>340</v>
+      </c>
+      <c r="F187" t="s">
         <v>341</v>
-      </c>
-      <c r="F187" t="s">
-        <v>342</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -7059,10 +7053,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>342</v>
+      </c>
+      <c r="F188" t="s">
         <v>343</v>
-      </c>
-      <c r="F188" t="s">
-        <v>344</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7088,10 +7082,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>344</v>
+      </c>
+      <c r="F189" t="s">
         <v>345</v>
-      </c>
-      <c r="F189" t="s">
-        <v>346</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7117,10 +7111,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>346</v>
+      </c>
+      <c r="F190" t="s">
         <v>347</v>
-      </c>
-      <c r="F190" t="s">
-        <v>348</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7146,10 +7140,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>348</v>
+      </c>
+      <c r="F191" t="s">
         <v>349</v>
-      </c>
-      <c r="F191" t="s">
-        <v>350</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7175,10 +7169,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>350</v>
+      </c>
+      <c r="F192" t="s">
         <v>351</v>
-      </c>
-      <c r="F192" t="s">
-        <v>352</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7204,10 +7198,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>352</v>
+      </c>
+      <c r="F193" t="s">
         <v>353</v>
-      </c>
-      <c r="F193" t="s">
-        <v>354</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7233,10 +7227,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F194" t="s">
-        <v>356</v>
+        <v>36</v>
       </c>
       <c r="G194" t="n">
         <v>10</v>
@@ -7262,10 +7256,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F195" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7291,10 +7285,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F196" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7320,10 +7314,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F197" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7349,10 +7343,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F198" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7378,10 +7372,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F199" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7407,10 +7401,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F200" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7436,10 +7430,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F201" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7465,10 +7459,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F202" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7494,10 +7488,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F203" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G203" t="n">
         <v>8</v>
@@ -7523,10 +7517,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F204" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7552,10 +7546,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F205" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7581,10 +7575,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F206" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7610,10 +7604,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F207" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7639,10 +7633,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F208" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7668,10 +7662,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F209" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7697,10 +7691,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F210" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -7726,10 +7720,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F211" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -7755,10 +7749,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F212" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7784,10 +7778,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F213" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7813,10 +7807,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F214" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7842,10 +7836,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F215" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7871,10 +7865,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F216" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7900,10 +7894,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F217" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7929,10 +7923,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F218" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7958,10 +7952,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F219" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -7987,10 +7981,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F220" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8016,10 +8010,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F221" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8045,10 +8039,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F222" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8074,10 +8068,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F223" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8103,10 +8097,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F224" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G224" t="n">
         <v>7</v>
@@ -8132,10 +8126,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>413</v>
+      </c>
+      <c r="F225" t="s">
         <v>415</v>
-      </c>
-      <c r="F225" t="s">
-        <v>417</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>

--- a/xlsx/西部非洲_intext.xlsx
+++ b/xlsx/西部非洲_intext.xlsx
@@ -29,7 +29,7 @@
     <t>法屬西非</t>
   </si>
   <si>
-    <t>政策_政策_美國_西部非洲</t>
+    <t>体育运动_体育运动_南非_西部非洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%9C%B0%E7%90%86%E6%96%B9%E6%A1%88</t>
@@ -5383,7 +5383,7 @@
         <v>248</v>
       </c>
       <c r="G130" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
